--- a/venv/src/Reports/Reports.xlsx
+++ b/venv/src/Reports/Reports.xlsx
@@ -1257,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K24" sqref="G1:K24"/>
@@ -1749,6 +1749,56 @@
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>Christian Hansen</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Verify Screening processes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Christian Hansen</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Verify Screening processes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Christian Hansen</t>
         </is>
